--- a/ConfigData/Xlsx/Samurai.xlsx
+++ b/ConfigData/Xlsx/Samurai.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="378">
   <si>
     <t>老鼠</t>
   </si>
@@ -988,35 +988,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>结识：击败</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RivalDefeat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>赛尼斯</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>结识：任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>qiaqia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RivalQuest</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RivalDefeat</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1278,27 +1250,72 @@
     <t>赛尼斯</t>
   </si>
   <si>
-    <t>selectjob</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RivalRecordId</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>结识：记录id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>结识：记录值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RivalRecordValue</t>
+    <t>等级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Spd</t>
+  </si>
+  <si>
+    <t>Skl</t>
+  </si>
+  <si>
+    <t>Luk</t>
+  </si>
+  <si>
+    <t>Mov</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>技巧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mag</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1517,7 +1534,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1743,18 +1760,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -2033,7 +2038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2050,9 +2055,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2109,20 +2111,17 @@
     <xf numFmtId="0" fontId="22" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2169,7 +2168,15 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2435,6 +2442,347 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2541,82 +2889,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2965,149 +3237,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -3396,54 +3525,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:O51" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
-  <autoFilter ref="A3:O51"/>
-  <sortState ref="A4:L50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:T51" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" tableBorderDxfId="67">
+  <autoFilter ref="A3:T51"/>
+  <sortState ref="A4:Q50">
     <sortCondition ref="A3:A50"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Id" dataDxfId="56"/>
-    <tableColumn id="2" name="Name" dataDxfId="55"/>
-    <tableColumn id="18" name="Ename" dataDxfId="54"/>
-    <tableColumn id="3" name="Type" dataDxfId="53"/>
-    <tableColumn id="21" name="Quality" dataDxfId="52"/>
-    <tableColumn id="6" name="World" dataDxfId="51"/>
-    <tableColumn id="10" name="Job" dataDxfId="50"/>
-    <tableColumn id="7" name="RivalDefeat" dataDxfId="49"/>
-    <tableColumn id="8" name="RivalQuest" dataDxfId="48"/>
-    <tableColumn id="25" name="RivalRecordId" dataDxfId="47"/>
-    <tableColumn id="26" name="RivalRecordValue" dataDxfId="46"/>
-    <tableColumn id="17" name="Figue" dataDxfId="45"/>
-    <tableColumn id="22" name="~History" dataDxfId="44"/>
-    <tableColumn id="23" name="~Like" dataDxfId="43"/>
-    <tableColumn id="24" name="~Hate" dataDxfId="42"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="Id" dataDxfId="66"/>
+    <tableColumn id="2" name="Name" dataDxfId="65"/>
+    <tableColumn id="18" name="Ename" dataDxfId="64"/>
+    <tableColumn id="3" name="Type" dataDxfId="63"/>
+    <tableColumn id="21" name="Quality" dataDxfId="62"/>
+    <tableColumn id="6" name="World" dataDxfId="61"/>
+    <tableColumn id="10" name="Job" dataDxfId="42"/>
+    <tableColumn id="4" name="Level" dataDxfId="41"/>
+    <tableColumn id="5" name="Str" dataDxfId="39"/>
+    <tableColumn id="9" name="Def" dataDxfId="38"/>
+    <tableColumn id="11" name="Spd" dataDxfId="37"/>
+    <tableColumn id="12" name="Skl" dataDxfId="36"/>
+    <tableColumn id="13" name="Luk" dataDxfId="35"/>
+    <tableColumn id="14" name="Mov" dataDxfId="34"/>
+    <tableColumn id="16" name="Mag" dataDxfId="25"/>
+    <tableColumn id="15" name="Hp" dataDxfId="33"/>
+    <tableColumn id="17" name="Figue" dataDxfId="60"/>
+    <tableColumn id="22" name="~History" dataDxfId="59"/>
+    <tableColumn id="23" name="~Like" dataDxfId="58"/>
+    <tableColumn id="24" name="~Hate" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:O46" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
-  <autoFilter ref="A3:O46"/>
-  <sortState ref="A4:L46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:T46" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
+  <autoFilter ref="A3:T46"/>
+  <sortState ref="A4:Q46">
     <sortCondition ref="A3:A46"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Id" dataDxfId="38"/>
-    <tableColumn id="2" name="Name" dataDxfId="37"/>
-    <tableColumn id="18" name="Ename" dataDxfId="36"/>
-    <tableColumn id="3" name="Type" dataDxfId="35"/>
-    <tableColumn id="7" name="Quality" dataDxfId="34"/>
-    <tableColumn id="6" name="World" dataDxfId="33"/>
-    <tableColumn id="10" name="Job" dataDxfId="32"/>
-    <tableColumn id="8" name="RivalDefeat" dataDxfId="31"/>
-    <tableColumn id="21" name="RivalQuest" dataDxfId="30"/>
-    <tableColumn id="25" name="RivalRecordId" dataDxfId="29"/>
-    <tableColumn id="26" name="RivalRecordValue" dataDxfId="28"/>
-    <tableColumn id="17" name="Figue" dataDxfId="27"/>
-    <tableColumn id="22" name="~History" dataDxfId="26"/>
-    <tableColumn id="23" name="~Like" dataDxfId="25"/>
-    <tableColumn id="24" name="~Hate" dataDxfId="24"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="Id" dataDxfId="53"/>
+    <tableColumn id="2" name="Name" dataDxfId="52"/>
+    <tableColumn id="18" name="Ename" dataDxfId="51"/>
+    <tableColumn id="3" name="Type" dataDxfId="50"/>
+    <tableColumn id="7" name="Quality" dataDxfId="49"/>
+    <tableColumn id="6" name="World" dataDxfId="48"/>
+    <tableColumn id="10" name="Job" dataDxfId="47"/>
+    <tableColumn id="4" name="Level" dataDxfId="40"/>
+    <tableColumn id="5" name="Str" dataDxfId="32"/>
+    <tableColumn id="9" name="Def" dataDxfId="31"/>
+    <tableColumn id="11" name="Spd" dataDxfId="30"/>
+    <tableColumn id="8" name="Skl" dataDxfId="29"/>
+    <tableColumn id="21" name="Luk" dataDxfId="28"/>
+    <tableColumn id="25" name="Mov" dataDxfId="27"/>
+    <tableColumn id="12" name="Mag" dataDxfId="0"/>
+    <tableColumn id="26" name="Hp" dataDxfId="26"/>
+    <tableColumn id="17" name="Figue" dataDxfId="46"/>
+    <tableColumn id="22" name="~History" dataDxfId="45"/>
+    <tableColumn id="23" name="~Like" dataDxfId="44"/>
+    <tableColumn id="24" name="~Hate" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3770,7 +3909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3784,60 +3923,73 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="4" max="5" width="5.25" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="5.25" customWidth="1"/>
-    <col min="9" max="9" width="7.25" customWidth="1"/>
-    <col min="10" max="11" width="5.625" customWidth="1"/>
-    <col min="13" max="13" width="30" customWidth="1"/>
+    <col min="8" max="16" width="5.125" customWidth="1"/>
+    <col min="18" max="18" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="K1" s="25" t="s">
+      <c r="H1" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R1" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>123</v>
       </c>
@@ -3859,32 +4011,47 @@
       <c r="G2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="R2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="S2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="T2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="O2" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>131</v>
       </c>
@@ -3906,37 +4073,52 @@
       <c r="G3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="I3" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="T3" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43020101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>153</v>
@@ -3944,29 +4126,48 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>11000001</v>
       </c>
       <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="26">
+        <v>10</v>
+      </c>
+      <c r="J4" s="26">
+        <v>2</v>
+      </c>
+      <c r="K4" s="26">
+        <v>5</v>
+      </c>
+      <c r="L4" s="26">
+        <v>2</v>
+      </c>
+      <c r="M4" s="26">
+        <v>3</v>
+      </c>
+      <c r="N4" s="26">
+        <v>1</v>
+      </c>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="M4" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="R4" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+    </row>
+    <row r="5" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43020102</v>
       </c>
@@ -3979,29 +4180,48 @@
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>11000003</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
+      <c r="H5" s="4">
+        <v>6</v>
+      </c>
+      <c r="I5" s="26">
+        <v>10</v>
+      </c>
+      <c r="J5" s="26">
+        <v>2</v>
+      </c>
+      <c r="K5" s="26">
+        <v>5</v>
+      </c>
+      <c r="L5" s="26">
+        <v>2</v>
+      </c>
+      <c r="M5" s="26">
+        <v>3</v>
+      </c>
+      <c r="N5" s="26">
+        <v>1</v>
+      </c>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R5" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43020103</v>
       </c>
@@ -4014,40 +4234,57 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>11000001</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
-        <v>19</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="H6" s="4">
         <v>10</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="I6" s="26">
+        <v>10</v>
+      </c>
+      <c r="J6" s="26">
+        <v>2</v>
+      </c>
+      <c r="K6" s="26">
+        <v>5</v>
+      </c>
+      <c r="L6" s="26">
+        <v>2</v>
+      </c>
+      <c r="M6" s="26">
+        <v>3</v>
+      </c>
+      <c r="N6" s="26">
+        <v>1</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R6" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43020104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>59</v>
@@ -4055,36 +4292,57 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>11000008</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
+      <c r="H7" s="4">
+        <v>13</v>
+      </c>
+      <c r="I7" s="26">
+        <v>10</v>
+      </c>
+      <c r="J7" s="26">
+        <v>2</v>
+      </c>
+      <c r="K7" s="26">
+        <v>5</v>
+      </c>
+      <c r="L7" s="26">
+        <v>2</v>
+      </c>
+      <c r="M7" s="26">
+        <v>3</v>
+      </c>
+      <c r="N7" s="26">
+        <v>1</v>
+      </c>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28" t="s">
+      <c r="R7" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43020105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>61</v>
@@ -4092,31 +4350,52 @@
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>11000002</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
+      <c r="H8" s="4">
+        <v>18</v>
+      </c>
+      <c r="I8" s="26">
+        <v>10</v>
+      </c>
+      <c r="J8" s="26">
+        <v>2</v>
+      </c>
+      <c r="K8" s="26">
+        <v>5</v>
+      </c>
+      <c r="L8" s="26">
+        <v>2</v>
+      </c>
+      <c r="M8" s="26">
+        <v>3</v>
+      </c>
+      <c r="N8" s="26">
+        <v>1</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28" t="s">
+      <c r="R8" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43020106</v>
       </c>
@@ -4129,31 +4408,50 @@
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>11000003</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
+      <c r="H9" s="4">
+        <v>21</v>
+      </c>
+      <c r="I9" s="26">
+        <v>10</v>
+      </c>
+      <c r="J9" s="26">
+        <v>2</v>
+      </c>
+      <c r="K9" s="26">
+        <v>5</v>
+      </c>
+      <c r="L9" s="26">
+        <v>2</v>
+      </c>
+      <c r="M9" s="26">
+        <v>3</v>
+      </c>
+      <c r="N9" s="26">
+        <v>1</v>
+      </c>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="M9" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-    <row r="10" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="R9" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+    </row>
+    <row r="10" spans="1:20" ht="27" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43020107</v>
       </c>
@@ -4166,29 +4464,50 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>3</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>11000007</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
+      <c r="H10" s="4">
+        <v>24</v>
+      </c>
+      <c r="I10" s="26">
+        <v>10</v>
+      </c>
+      <c r="J10" s="26">
+        <v>2</v>
+      </c>
+      <c r="K10" s="26">
+        <v>5</v>
+      </c>
+      <c r="L10" s="26">
+        <v>2</v>
+      </c>
+      <c r="M10" s="26">
+        <v>3</v>
+      </c>
+      <c r="N10" s="26">
+        <v>1</v>
+      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="M10" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-    </row>
-    <row r="11" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="R10" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+    </row>
+    <row r="11" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43020108</v>
       </c>
@@ -4201,29 +4520,50 @@
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>11000009</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
+      <c r="H11" s="4">
+        <v>29</v>
+      </c>
+      <c r="I11" s="26">
+        <v>10</v>
+      </c>
+      <c r="J11" s="26">
+        <v>2</v>
+      </c>
+      <c r="K11" s="26">
+        <v>5</v>
+      </c>
+      <c r="L11" s="26">
+        <v>2</v>
+      </c>
+      <c r="M11" s="26">
+        <v>3</v>
+      </c>
+      <c r="N11" s="26">
+        <v>1</v>
+      </c>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="M11" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R11" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43020109</v>
       </c>
@@ -4236,29 +4576,50 @@
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>11000004</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
+      <c r="H12" s="4">
+        <v>30</v>
+      </c>
+      <c r="I12" s="26">
+        <v>10</v>
+      </c>
+      <c r="J12" s="26">
+        <v>2</v>
+      </c>
+      <c r="K12" s="26">
+        <v>5</v>
+      </c>
+      <c r="L12" s="26">
+        <v>2</v>
+      </c>
+      <c r="M12" s="26">
+        <v>3</v>
+      </c>
+      <c r="N12" s="26">
+        <v>1</v>
+      </c>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R12" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43020110</v>
       </c>
@@ -4271,29 +4632,50 @@
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>4</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>11000006</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
+      <c r="H13" s="4">
+        <v>42</v>
+      </c>
+      <c r="I13" s="26">
+        <v>10</v>
+      </c>
+      <c r="J13" s="26">
+        <v>2</v>
+      </c>
+      <c r="K13" s="26">
+        <v>5</v>
+      </c>
+      <c r="L13" s="26">
+        <v>2</v>
+      </c>
+      <c r="M13" s="26">
+        <v>3</v>
+      </c>
+      <c r="N13" s="26">
+        <v>1</v>
+      </c>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M13" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R13" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43020201</v>
       </c>
@@ -4306,29 +4688,50 @@
       <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>4</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>11000007</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
+      <c r="H14" s="4">
+        <v>39</v>
+      </c>
+      <c r="I14" s="26">
+        <v>10</v>
+      </c>
+      <c r="J14" s="26">
+        <v>2</v>
+      </c>
+      <c r="K14" s="26">
+        <v>5</v>
+      </c>
+      <c r="L14" s="26">
+        <v>2</v>
+      </c>
+      <c r="M14" s="26">
+        <v>3</v>
+      </c>
+      <c r="N14" s="26">
+        <v>1</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="M14" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R14" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43020202</v>
       </c>
@@ -4341,29 +4744,50 @@
       <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>3</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>11000001</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
+      <c r="H15" s="4">
+        <v>25</v>
+      </c>
+      <c r="I15" s="26">
+        <v>10</v>
+      </c>
+      <c r="J15" s="26">
+        <v>2</v>
+      </c>
+      <c r="K15" s="26">
+        <v>5</v>
+      </c>
+      <c r="L15" s="26">
+        <v>2</v>
+      </c>
+      <c r="M15" s="26">
+        <v>3</v>
+      </c>
+      <c r="N15" s="26">
+        <v>1</v>
+      </c>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="M15" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R15" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43020203</v>
       </c>
@@ -4376,29 +4800,50 @@
       <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>4</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="21">
         <v>11000002</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4" t="s">
+      <c r="H16" s="4">
+        <v>37</v>
+      </c>
+      <c r="I16" s="26">
+        <v>10</v>
+      </c>
+      <c r="J16" s="26">
+        <v>2</v>
+      </c>
+      <c r="K16" s="26">
+        <v>5</v>
+      </c>
+      <c r="L16" s="26">
+        <v>2</v>
+      </c>
+      <c r="M16" s="26">
+        <v>3</v>
+      </c>
+      <c r="N16" s="26">
+        <v>1</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="M16" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R16" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43020204</v>
       </c>
@@ -4411,29 +4856,50 @@
       <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <v>11000009</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
+      <c r="H17" s="4">
+        <v>9</v>
+      </c>
+      <c r="I17" s="26">
+        <v>10</v>
+      </c>
+      <c r="J17" s="26">
+        <v>2</v>
+      </c>
+      <c r="K17" s="26">
+        <v>5</v>
+      </c>
+      <c r="L17" s="26">
+        <v>2</v>
+      </c>
+      <c r="M17" s="26">
+        <v>3</v>
+      </c>
+      <c r="N17" s="26">
+        <v>1</v>
+      </c>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M17" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R17" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43020205</v>
       </c>
@@ -4446,27 +4912,48 @@
       <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="21">
         <v>11000008</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4" t="s">
+      <c r="H18" s="4">
+        <v>6</v>
+      </c>
+      <c r="I18" s="26">
+        <v>10</v>
+      </c>
+      <c r="J18" s="26">
+        <v>2</v>
+      </c>
+      <c r="K18" s="26">
+        <v>5</v>
+      </c>
+      <c r="L18" s="26">
+        <v>2</v>
+      </c>
+      <c r="M18" s="26">
+        <v>3</v>
+      </c>
+      <c r="N18" s="26">
+        <v>1</v>
+      </c>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M18" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-    </row>
-    <row r="19" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="R18" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+    </row>
+    <row r="19" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43020206</v>
       </c>
@@ -4479,29 +4966,50 @@
       <c r="D19" s="4">
         <v>2</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <v>11000003</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4" t="s">
+      <c r="H19" s="4">
+        <v>13</v>
+      </c>
+      <c r="I19" s="26">
+        <v>10</v>
+      </c>
+      <c r="J19" s="26">
+        <v>2</v>
+      </c>
+      <c r="K19" s="26">
+        <v>5</v>
+      </c>
+      <c r="L19" s="26">
+        <v>2</v>
+      </c>
+      <c r="M19" s="26">
+        <v>3</v>
+      </c>
+      <c r="N19" s="26">
+        <v>1</v>
+      </c>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="M19" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R19" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43020207</v>
       </c>
@@ -4514,29 +5022,50 @@
       <c r="D20" s="4">
         <v>2</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>2</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <v>11000007</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4" t="s">
+      <c r="H20" s="4">
+        <v>19</v>
+      </c>
+      <c r="I20" s="26">
+        <v>10</v>
+      </c>
+      <c r="J20" s="26">
+        <v>2</v>
+      </c>
+      <c r="K20" s="26">
+        <v>5</v>
+      </c>
+      <c r="L20" s="26">
+        <v>2</v>
+      </c>
+      <c r="M20" s="26">
+        <v>3</v>
+      </c>
+      <c r="N20" s="26">
+        <v>1</v>
+      </c>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R20" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43020301</v>
       </c>
@@ -4549,29 +5078,50 @@
       <c r="D21" s="4">
         <v>3</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="21">
         <v>11000005</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4" t="s">
+      <c r="H21" s="4">
+        <v>10</v>
+      </c>
+      <c r="I21" s="26">
+        <v>10</v>
+      </c>
+      <c r="J21" s="26">
+        <v>2</v>
+      </c>
+      <c r="K21" s="26">
+        <v>5</v>
+      </c>
+      <c r="L21" s="26">
+        <v>2</v>
+      </c>
+      <c r="M21" s="26">
+        <v>3</v>
+      </c>
+      <c r="N21" s="26">
+        <v>1</v>
+      </c>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="M21" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R21" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43020302</v>
       </c>
@@ -4584,34 +5134,55 @@
       <c r="D22" s="4">
         <v>3</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="21">
         <v>11000006</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4" t="s">
+      <c r="H22" s="4">
+        <v>21</v>
+      </c>
+      <c r="I22" s="26">
+        <v>10</v>
+      </c>
+      <c r="J22" s="26">
+        <v>2</v>
+      </c>
+      <c r="K22" s="26">
+        <v>5</v>
+      </c>
+      <c r="L22" s="26">
+        <v>2</v>
+      </c>
+      <c r="M22" s="26">
+        <v>3</v>
+      </c>
+      <c r="N22" s="26">
+        <v>1</v>
+      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="M22" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R22" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43020303</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>84</v>
@@ -4619,29 +5190,50 @@
       <c r="D23" s="4">
         <v>3</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="21">
         <v>11000004</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4" t="s">
+      <c r="H23" s="4">
+        <v>7</v>
+      </c>
+      <c r="I23" s="26">
+        <v>10</v>
+      </c>
+      <c r="J23" s="26">
+        <v>2</v>
+      </c>
+      <c r="K23" s="26">
+        <v>5</v>
+      </c>
+      <c r="L23" s="26">
+        <v>2</v>
+      </c>
+      <c r="M23" s="26">
+        <v>3</v>
+      </c>
+      <c r="N23" s="26">
+        <v>1</v>
+      </c>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="M23" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="O23" s="28"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R23" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="S23" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="T23" s="24"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43020304</v>
       </c>
@@ -4654,29 +5246,50 @@
       <c r="D24" s="4">
         <v>3</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>2</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="21">
         <v>11000002</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4" t="s">
+      <c r="H24" s="4">
+        <v>14</v>
+      </c>
+      <c r="I24" s="26">
+        <v>10</v>
+      </c>
+      <c r="J24" s="26">
+        <v>2</v>
+      </c>
+      <c r="K24" s="26">
+        <v>5</v>
+      </c>
+      <c r="L24" s="26">
+        <v>2</v>
+      </c>
+      <c r="M24" s="26">
+        <v>3</v>
+      </c>
+      <c r="N24" s="26">
+        <v>1</v>
+      </c>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="M24" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R24" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43020305</v>
       </c>
@@ -4689,29 +5302,50 @@
       <c r="D25" s="4">
         <v>3</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>2</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="21">
         <v>11000005</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
+      <c r="H25" s="4">
+        <v>17</v>
+      </c>
+      <c r="I25" s="26">
+        <v>10</v>
+      </c>
+      <c r="J25" s="26">
+        <v>2</v>
+      </c>
+      <c r="K25" s="26">
+        <v>5</v>
+      </c>
+      <c r="L25" s="26">
+        <v>2</v>
+      </c>
+      <c r="M25" s="26">
+        <v>3</v>
+      </c>
+      <c r="N25" s="26">
+        <v>1</v>
+      </c>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="M25" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R25" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43020306</v>
       </c>
@@ -4724,29 +5358,50 @@
       <c r="D26" s="4">
         <v>3</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>4</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="21">
         <v>11000004</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4" t="s">
+      <c r="H26" s="4">
+        <v>29</v>
+      </c>
+      <c r="I26" s="26">
+        <v>10</v>
+      </c>
+      <c r="J26" s="26">
+        <v>2</v>
+      </c>
+      <c r="K26" s="26">
+        <v>5</v>
+      </c>
+      <c r="L26" s="26">
+        <v>2</v>
+      </c>
+      <c r="M26" s="26">
+        <v>3</v>
+      </c>
+      <c r="N26" s="26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="M26" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R26" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43020307</v>
       </c>
@@ -4759,29 +5414,50 @@
       <c r="D27" s="4">
         <v>3</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>2</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="21">
         <v>11000001</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4" t="s">
+      <c r="H27" s="4">
+        <v>15</v>
+      </c>
+      <c r="I27" s="26">
+        <v>10</v>
+      </c>
+      <c r="J27" s="26">
+        <v>2</v>
+      </c>
+      <c r="K27" s="26">
+        <v>5</v>
+      </c>
+      <c r="L27" s="26">
+        <v>2</v>
+      </c>
+      <c r="M27" s="26">
+        <v>3</v>
+      </c>
+      <c r="N27" s="26">
+        <v>1</v>
+      </c>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="M27" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R27" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43020308</v>
       </c>
@@ -4794,34 +5470,55 @@
       <c r="D28" s="4">
         <v>3</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <v>2</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <v>11000001</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4" t="s">
+      <c r="H28" s="4">
+        <v>16</v>
+      </c>
+      <c r="I28" s="26">
+        <v>10</v>
+      </c>
+      <c r="J28" s="26">
+        <v>2</v>
+      </c>
+      <c r="K28" s="26">
+        <v>5</v>
+      </c>
+      <c r="L28" s="26">
+        <v>2</v>
+      </c>
+      <c r="M28" s="26">
+        <v>3</v>
+      </c>
+      <c r="N28" s="26">
+        <v>1</v>
+      </c>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="M28" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R28" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43020309</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>94</v>
@@ -4829,31 +5526,52 @@
       <c r="D29" s="4">
         <v>3</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>2</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="21">
         <v>11000004</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4" t="s">
+      <c r="H29" s="4">
+        <v>19</v>
+      </c>
+      <c r="I29" s="26">
+        <v>10</v>
+      </c>
+      <c r="J29" s="26">
+        <v>2</v>
+      </c>
+      <c r="K29" s="26">
+        <v>5</v>
+      </c>
+      <c r="L29" s="26">
+        <v>2</v>
+      </c>
+      <c r="M29" s="26">
+        <v>3</v>
+      </c>
+      <c r="N29" s="26">
+        <v>1</v>
+      </c>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M29" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="N29" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="O29" s="28"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R29" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="S29" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="T29" s="24"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43020310</v>
       </c>
@@ -4866,29 +5584,50 @@
       <c r="D30" s="4">
         <v>3</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <v>1</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="21">
         <v>11000003</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4" t="s">
+      <c r="H30" s="4">
+        <v>12</v>
+      </c>
+      <c r="I30" s="26">
+        <v>10</v>
+      </c>
+      <c r="J30" s="26">
+        <v>2</v>
+      </c>
+      <c r="K30" s="26">
+        <v>5</v>
+      </c>
+      <c r="L30" s="26">
+        <v>2</v>
+      </c>
+      <c r="M30" s="26">
+        <v>3</v>
+      </c>
+      <c r="N30" s="26">
+        <v>1</v>
+      </c>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="M30" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R30" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43020311</v>
       </c>
@@ -4901,29 +5640,50 @@
       <c r="D31" s="4">
         <v>3</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <v>2</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <v>11000005</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4" t="s">
+      <c r="H31" s="4">
+        <v>19</v>
+      </c>
+      <c r="I31" s="26">
+        <v>10</v>
+      </c>
+      <c r="J31" s="26">
+        <v>2</v>
+      </c>
+      <c r="K31" s="26">
+        <v>5</v>
+      </c>
+      <c r="L31" s="26">
+        <v>2</v>
+      </c>
+      <c r="M31" s="26">
+        <v>3</v>
+      </c>
+      <c r="N31" s="26">
+        <v>1</v>
+      </c>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="M31" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R31" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43020312</v>
       </c>
@@ -4936,34 +5696,55 @@
       <c r="D32" s="4">
         <v>3</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="20">
         <v>3</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <v>11000001</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4" t="s">
+      <c r="H32" s="4">
+        <v>27</v>
+      </c>
+      <c r="I32" s="26">
+        <v>10</v>
+      </c>
+      <c r="J32" s="26">
+        <v>2</v>
+      </c>
+      <c r="K32" s="26">
+        <v>5</v>
+      </c>
+      <c r="L32" s="26">
+        <v>2</v>
+      </c>
+      <c r="M32" s="26">
+        <v>3</v>
+      </c>
+      <c r="N32" s="26">
+        <v>1</v>
+      </c>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="M32" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R32" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43020401</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>102</v>
@@ -4971,36 +5752,57 @@
       <c r="D33" s="4">
         <v>4</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>2</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="21">
         <v>11000002</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4" t="s">
+      <c r="H33" s="4">
+        <v>15</v>
+      </c>
+      <c r="I33" s="26">
+        <v>10</v>
+      </c>
+      <c r="J33" s="26">
+        <v>2</v>
+      </c>
+      <c r="K33" s="26">
+        <v>5</v>
+      </c>
+      <c r="L33" s="26">
+        <v>2</v>
+      </c>
+      <c r="M33" s="26">
+        <v>3</v>
+      </c>
+      <c r="N33" s="26">
+        <v>1</v>
+      </c>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="M33" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="N33" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="O33" s="28"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R33" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="S33" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="T33" s="24"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43020402</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>103</v>
@@ -5008,36 +5810,57 @@
       <c r="D34" s="4">
         <v>4</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="20">
         <v>2</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="21">
         <v>11000005</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4" t="s">
+      <c r="H34" s="4">
+        <v>16</v>
+      </c>
+      <c r="I34" s="26">
+        <v>10</v>
+      </c>
+      <c r="J34" s="26">
+        <v>2</v>
+      </c>
+      <c r="K34" s="26">
+        <v>5</v>
+      </c>
+      <c r="L34" s="26">
+        <v>2</v>
+      </c>
+      <c r="M34" s="26">
+        <v>3</v>
+      </c>
+      <c r="N34" s="26">
+        <v>1</v>
+      </c>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="M34" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="N34" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="O34" s="28"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R34" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="S34" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="T34" s="24"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43020403</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>104</v>
@@ -5045,36 +5868,57 @@
       <c r="D35" s="4">
         <v>4</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <v>2</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="21">
         <v>11000010</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4" t="s">
+      <c r="H35" s="4">
+        <v>19</v>
+      </c>
+      <c r="I35" s="26">
+        <v>10</v>
+      </c>
+      <c r="J35" s="26">
+        <v>2</v>
+      </c>
+      <c r="K35" s="26">
+        <v>5</v>
+      </c>
+      <c r="L35" s="26">
+        <v>2</v>
+      </c>
+      <c r="M35" s="26">
+        <v>3</v>
+      </c>
+      <c r="N35" s="26">
+        <v>1</v>
+      </c>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="M35" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="N35" s="28" t="s">
+      <c r="R35" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="S35" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="O35" s="28"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="T35" s="24"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43020404</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>106</v>
@@ -5082,31 +5926,52 @@
       <c r="D36" s="4">
         <v>4</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <v>2</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="21">
         <v>11000001</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4" t="s">
+      <c r="H36" s="4">
+        <v>21</v>
+      </c>
+      <c r="I36" s="26">
+        <v>10</v>
+      </c>
+      <c r="J36" s="26">
+        <v>2</v>
+      </c>
+      <c r="K36" s="26">
+        <v>5</v>
+      </c>
+      <c r="L36" s="26">
+        <v>2</v>
+      </c>
+      <c r="M36" s="26">
+        <v>3</v>
+      </c>
+      <c r="N36" s="26">
+        <v>1</v>
+      </c>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="M36" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="N36" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="O36" s="28"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R36" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="S36" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="T36" s="24"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43020405</v>
       </c>
@@ -5119,29 +5984,50 @@
       <c r="D37" s="4">
         <v>4</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <v>3</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="21">
         <v>11000008</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4" t="s">
+      <c r="H37" s="4">
+        <v>27</v>
+      </c>
+      <c r="I37" s="26">
+        <v>10</v>
+      </c>
+      <c r="J37" s="26">
+        <v>2</v>
+      </c>
+      <c r="K37" s="26">
+        <v>5</v>
+      </c>
+      <c r="L37" s="26">
+        <v>2</v>
+      </c>
+      <c r="M37" s="26">
+        <v>3</v>
+      </c>
+      <c r="N37" s="26">
+        <v>1</v>
+      </c>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="M37" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R37" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>43020406</v>
       </c>
@@ -5154,29 +6040,50 @@
       <c r="D38" s="4">
         <v>4</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="20">
         <v>3</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="21">
         <v>11000010</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4" t="s">
+      <c r="H38" s="4">
+        <v>22</v>
+      </c>
+      <c r="I38" s="26">
+        <v>10</v>
+      </c>
+      <c r="J38" s="26">
+        <v>2</v>
+      </c>
+      <c r="K38" s="26">
+        <v>5</v>
+      </c>
+      <c r="L38" s="26">
+        <v>2</v>
+      </c>
+      <c r="M38" s="26">
+        <v>3</v>
+      </c>
+      <c r="N38" s="26">
+        <v>1</v>
+      </c>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="M38" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R38" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>43020407</v>
       </c>
@@ -5189,29 +6096,50 @@
       <c r="D39" s="4">
         <v>4</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="20">
         <v>2</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="21">
         <v>11000004</v>
       </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4" t="s">
+      <c r="H39" s="4">
+        <v>15</v>
+      </c>
+      <c r="I39" s="26">
+        <v>10</v>
+      </c>
+      <c r="J39" s="26">
+        <v>2</v>
+      </c>
+      <c r="K39" s="26">
+        <v>5</v>
+      </c>
+      <c r="L39" s="26">
+        <v>2</v>
+      </c>
+      <c r="M39" s="26">
+        <v>3</v>
+      </c>
+      <c r="N39" s="26">
+        <v>1</v>
+      </c>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="M39" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R39" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>43020408</v>
       </c>
@@ -5224,29 +6152,50 @@
       <c r="D40" s="4">
         <v>4</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="20">
         <v>1</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="21">
         <v>11000002</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4" t="s">
+      <c r="H40" s="4">
+        <v>10</v>
+      </c>
+      <c r="I40" s="26">
+        <v>10</v>
+      </c>
+      <c r="J40" s="26">
+        <v>2</v>
+      </c>
+      <c r="K40" s="26">
+        <v>5</v>
+      </c>
+      <c r="L40" s="26">
+        <v>2</v>
+      </c>
+      <c r="M40" s="26">
+        <v>3</v>
+      </c>
+      <c r="N40" s="26">
+        <v>1</v>
+      </c>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="M40" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R40" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>43020409</v>
       </c>
@@ -5259,29 +6208,50 @@
       <c r="D41" s="4">
         <v>4</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="20">
         <v>1</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="21">
         <v>11000004</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4" t="s">
+      <c r="H41" s="4">
+        <v>6</v>
+      </c>
+      <c r="I41" s="26">
+        <v>10</v>
+      </c>
+      <c r="J41" s="26">
+        <v>2</v>
+      </c>
+      <c r="K41" s="26">
+        <v>5</v>
+      </c>
+      <c r="L41" s="26">
+        <v>2</v>
+      </c>
+      <c r="M41" s="26">
+        <v>3</v>
+      </c>
+      <c r="N41" s="26">
+        <v>1</v>
+      </c>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="M41" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R41" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>43020501</v>
       </c>
@@ -5294,29 +6264,50 @@
       <c r="D42" s="4">
         <v>5</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="20">
         <v>3</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="21">
         <v>11000003</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4" t="s">
+      <c r="H42" s="4">
+        <v>22</v>
+      </c>
+      <c r="I42" s="26">
+        <v>10</v>
+      </c>
+      <c r="J42" s="26">
+        <v>2</v>
+      </c>
+      <c r="K42" s="26">
+        <v>5</v>
+      </c>
+      <c r="L42" s="26">
+        <v>2</v>
+      </c>
+      <c r="M42" s="26">
+        <v>3</v>
+      </c>
+      <c r="N42" s="26">
+        <v>1</v>
+      </c>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="M42" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R42" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>43020502</v>
       </c>
@@ -5329,29 +6320,50 @@
       <c r="D43" s="4">
         <v>5</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="20">
         <v>2</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="21">
         <v>11000002</v>
       </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4" t="s">
+      <c r="H43" s="4">
+        <v>19</v>
+      </c>
+      <c r="I43" s="26">
+        <v>10</v>
+      </c>
+      <c r="J43" s="26">
+        <v>2</v>
+      </c>
+      <c r="K43" s="26">
+        <v>5</v>
+      </c>
+      <c r="L43" s="26">
+        <v>2</v>
+      </c>
+      <c r="M43" s="26">
+        <v>3</v>
+      </c>
+      <c r="N43" s="26">
+        <v>1</v>
+      </c>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="M43" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-    </row>
-    <row r="44" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="R43" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+    </row>
+    <row r="44" spans="1:20" ht="54" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43020503</v>
       </c>
@@ -5364,29 +6376,50 @@
       <c r="D44" s="4">
         <v>5</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="20">
         <v>1</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="21">
         <v>11000008</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4" t="s">
+      <c r="H44" s="4">
+        <v>13</v>
+      </c>
+      <c r="I44" s="26">
+        <v>10</v>
+      </c>
+      <c r="J44" s="26">
+        <v>2</v>
+      </c>
+      <c r="K44" s="26">
+        <v>5</v>
+      </c>
+      <c r="L44" s="26">
+        <v>2</v>
+      </c>
+      <c r="M44" s="26">
+        <v>3</v>
+      </c>
+      <c r="N44" s="26">
+        <v>1</v>
+      </c>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M44" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R44" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>43020504</v>
       </c>
@@ -5399,29 +6432,50 @@
       <c r="D45" s="4">
         <v>5</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="20">
         <v>3</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="21">
         <v>11000005</v>
       </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4" t="s">
+      <c r="H45" s="4">
+        <v>28</v>
+      </c>
+      <c r="I45" s="26">
+        <v>10</v>
+      </c>
+      <c r="J45" s="26">
+        <v>2</v>
+      </c>
+      <c r="K45" s="26">
+        <v>5</v>
+      </c>
+      <c r="L45" s="26">
+        <v>2</v>
+      </c>
+      <c r="M45" s="26">
+        <v>3</v>
+      </c>
+      <c r="N45" s="26">
+        <v>1</v>
+      </c>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="M45" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R45" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43020505</v>
       </c>
@@ -5431,7 +6485,7 @@
       <c r="C46" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="16">
         <v>5</v>
       </c>
       <c r="E46" s="4">
@@ -5440,25 +6494,46 @@
       <c r="F46" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="17">
         <v>11000001</v>
       </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17" t="s">
+      <c r="H46" s="16">
+        <v>16</v>
+      </c>
+      <c r="I46" s="26">
+        <v>10</v>
+      </c>
+      <c r="J46" s="26">
+        <v>2</v>
+      </c>
+      <c r="K46" s="26">
+        <v>5</v>
+      </c>
+      <c r="L46" s="26">
+        <v>2</v>
+      </c>
+      <c r="M46" s="26">
+        <v>3</v>
+      </c>
+      <c r="N46" s="26">
+        <v>1</v>
+      </c>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="M46" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="N46" s="4" t="s">
+      <c r="R46" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="S46" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="O46" s="28"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="T46" s="24"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>43020506</v>
       </c>
@@ -5468,7 +6543,7 @@
       <c r="C47" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="16">
         <v>5</v>
       </c>
       <c r="E47" s="4">
@@ -5477,25 +6552,46 @@
       <c r="F47" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="17">
         <v>11000004</v>
       </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17" t="s">
+      <c r="H47" s="16">
+        <v>10</v>
+      </c>
+      <c r="I47" s="26">
+        <v>10</v>
+      </c>
+      <c r="J47" s="26">
+        <v>2</v>
+      </c>
+      <c r="K47" s="26">
+        <v>5</v>
+      </c>
+      <c r="L47" s="26">
+        <v>2</v>
+      </c>
+      <c r="M47" s="26">
+        <v>3</v>
+      </c>
+      <c r="N47" s="26">
+        <v>1</v>
+      </c>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="M47" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="N47" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="O47" s="28"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R47" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="S47" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="T47" s="24"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>43020601</v>
       </c>
@@ -5508,27 +6604,48 @@
       <c r="D48" s="4">
         <v>6</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="20">
         <v>1</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="21">
         <v>11000002</v>
       </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4" t="s">
+      <c r="H48" s="4">
+        <v>7</v>
+      </c>
+      <c r="I48" s="26">
+        <v>10</v>
+      </c>
+      <c r="J48" s="26">
+        <v>2</v>
+      </c>
+      <c r="K48" s="26">
+        <v>5</v>
+      </c>
+      <c r="L48" s="26">
+        <v>2</v>
+      </c>
+      <c r="M48" s="26">
+        <v>3</v>
+      </c>
+      <c r="N48" s="26">
+        <v>1</v>
+      </c>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="M48" s="12"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R48" s="11"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>43020602</v>
       </c>
@@ -5541,25 +6658,46 @@
       <c r="D49" s="4">
         <v>6</v>
       </c>
-      <c r="E49" s="21"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="21">
         <v>11000010</v>
       </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4" t="s">
+      <c r="H49" s="4">
+        <v>4</v>
+      </c>
+      <c r="I49" s="26">
+        <v>10</v>
+      </c>
+      <c r="J49" s="26">
+        <v>2</v>
+      </c>
+      <c r="K49" s="26">
+        <v>5</v>
+      </c>
+      <c r="L49" s="26">
+        <v>2</v>
+      </c>
+      <c r="M49" s="26">
+        <v>3</v>
+      </c>
+      <c r="N49" s="26">
+        <v>1</v>
+      </c>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="M49" s="12"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R49" s="11"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>43020603</v>
       </c>
@@ -5572,25 +6710,46 @@
       <c r="D50" s="4">
         <v>6</v>
       </c>
-      <c r="E50" s="21"/>
+      <c r="E50" s="20"/>
       <c r="F50" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="21">
         <v>11000002</v>
       </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4" t="s">
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="26">
+        <v>10</v>
+      </c>
+      <c r="J50" s="26">
+        <v>2</v>
+      </c>
+      <c r="K50" s="26">
+        <v>5</v>
+      </c>
+      <c r="L50" s="26">
+        <v>2</v>
+      </c>
+      <c r="M50" s="26">
+        <v>3</v>
+      </c>
+      <c r="N50" s="26">
+        <v>1</v>
+      </c>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="M50" s="12"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R50" s="11"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>43020604</v>
       </c>
@@ -5603,109 +6762,130 @@
       <c r="D51" s="4">
         <v>6</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="20">
         <v>1</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="21">
         <v>11000001</v>
       </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4" t="s">
+      <c r="H51" s="4">
+        <v>11</v>
+      </c>
+      <c r="I51" s="26">
+        <v>10</v>
+      </c>
+      <c r="J51" s="26">
+        <v>2</v>
+      </c>
+      <c r="K51" s="26">
+        <v>5</v>
+      </c>
+      <c r="L51" s="26">
+        <v>2</v>
+      </c>
+      <c r="M51" s="26">
+        <v>3</v>
+      </c>
+      <c r="N51" s="26">
+        <v>1</v>
+      </c>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M51" s="12"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="E23:E25 E27:E43 E4:E19 E45:E51">
-    <cfRule type="cellIs" dxfId="23" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="43" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="44" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="19" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="38" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5719,13 +6899,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:N1048576"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5733,57 +6913,72 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="4" max="5" width="5.25" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="11" width="5.375" customWidth="1"/>
+    <col min="8" max="16" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:20" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="K1" s="25" t="s">
+      <c r="H1" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R1" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>123</v>
       </c>
@@ -5805,32 +7000,47 @@
       <c r="G2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="R2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="S2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="T2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="O2" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>131</v>
       </c>
@@ -5852,36 +7062,51 @@
       <c r="G3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="J3" s="27" t="s">
+      <c r="H3" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="K3" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="O3" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R3" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43000001</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -5894,25 +7119,46 @@
       <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>11001003</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="26">
+        <v>5</v>
+      </c>
+      <c r="J4" s="26">
+        <v>1</v>
+      </c>
+      <c r="K4" s="26">
+        <v>2</v>
+      </c>
+      <c r="L4" s="26">
+        <v>2</v>
+      </c>
+      <c r="M4" s="26">
+        <v>3</v>
+      </c>
+      <c r="N4" s="26">
+        <v>1</v>
+      </c>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43000002</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -5925,25 +7171,46 @@
       <c r="F5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>11001003</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="4" t="s">
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="26">
+        <v>5</v>
+      </c>
+      <c r="J5" s="26">
+        <v>1</v>
+      </c>
+      <c r="K5" s="26">
+        <v>2</v>
+      </c>
+      <c r="L5" s="26">
+        <v>2</v>
+      </c>
+      <c r="M5" s="26">
+        <v>3</v>
+      </c>
+      <c r="N5" s="26">
+        <v>1</v>
+      </c>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43000003</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -5956,25 +7223,46 @@
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>11001003</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+      <c r="I6" s="26">
+        <v>5</v>
+      </c>
+      <c r="J6" s="26">
+        <v>1</v>
+      </c>
+      <c r="K6" s="26">
+        <v>2</v>
+      </c>
+      <c r="L6" s="26">
+        <v>2</v>
+      </c>
+      <c r="M6" s="26">
+        <v>3</v>
+      </c>
+      <c r="N6" s="26">
+        <v>1</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43000004</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5987,25 +7275,46 @@
       <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>11001003</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="26">
+        <v>5</v>
+      </c>
+      <c r="J7" s="26">
+        <v>1</v>
+      </c>
+      <c r="K7" s="26">
+        <v>2</v>
+      </c>
+      <c r="L7" s="26">
+        <v>2</v>
+      </c>
+      <c r="M7" s="26">
+        <v>3</v>
+      </c>
+      <c r="N7" s="26">
+        <v>1</v>
+      </c>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43000005</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -6018,25 +7327,46 @@
       <c r="F8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>11001003</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
+      <c r="H8" s="4">
+        <v>7</v>
+      </c>
+      <c r="I8" s="26">
+        <v>5</v>
+      </c>
+      <c r="J8" s="26">
+        <v>1</v>
+      </c>
+      <c r="K8" s="26">
+        <v>2</v>
+      </c>
+      <c r="L8" s="26">
+        <v>2</v>
+      </c>
+      <c r="M8" s="26">
+        <v>3</v>
+      </c>
+      <c r="N8" s="26">
+        <v>1</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43000007</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -6049,21 +7379,42 @@
       <c r="F9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>11001003</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
+      <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="26">
+        <v>5</v>
+      </c>
+      <c r="J9" s="26">
+        <v>1</v>
+      </c>
+      <c r="K9" s="26">
+        <v>2</v>
+      </c>
+      <c r="L9" s="26">
+        <v>2</v>
+      </c>
+      <c r="M9" s="26">
+        <v>3</v>
+      </c>
+      <c r="N9" s="26">
+        <v>1</v>
+      </c>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43000008</v>
       </c>
@@ -6080,21 +7431,42 @@
       <c r="F10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>11001003</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
+      <c r="H10" s="4">
+        <v>13</v>
+      </c>
+      <c r="I10" s="26">
+        <v>5</v>
+      </c>
+      <c r="J10" s="26">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26">
+        <v>2</v>
+      </c>
+      <c r="L10" s="26">
+        <v>2</v>
+      </c>
+      <c r="M10" s="26">
+        <v>3</v>
+      </c>
+      <c r="N10" s="26">
+        <v>1</v>
+      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43000009</v>
       </c>
@@ -6111,25 +7483,46 @@
       <c r="F11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>11001003</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
+      <c r="H11" s="4">
+        <v>13</v>
+      </c>
+      <c r="I11" s="26">
+        <v>5</v>
+      </c>
+      <c r="J11" s="26">
+        <v>1</v>
+      </c>
+      <c r="K11" s="26">
+        <v>2</v>
+      </c>
+      <c r="L11" s="26">
+        <v>2</v>
+      </c>
+      <c r="M11" s="26">
+        <v>3</v>
+      </c>
+      <c r="N11" s="26">
+        <v>1</v>
+      </c>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43000010</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>155</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -6142,25 +7535,46 @@
       <c r="F12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>11001003</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
+      <c r="H12" s="4">
+        <v>6</v>
+      </c>
+      <c r="I12" s="26">
+        <v>5</v>
+      </c>
+      <c r="J12" s="26">
+        <v>1</v>
+      </c>
+      <c r="K12" s="26">
+        <v>2</v>
+      </c>
+      <c r="L12" s="26">
+        <v>2</v>
+      </c>
+      <c r="M12" s="26">
+        <v>3</v>
+      </c>
+      <c r="N12" s="26">
+        <v>1</v>
+      </c>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43000011</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -6173,21 +7587,42 @@
       <c r="F13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>11001003</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="I13" s="26">
+        <v>5</v>
+      </c>
+      <c r="J13" s="26">
+        <v>1</v>
+      </c>
+      <c r="K13" s="26">
+        <v>2</v>
+      </c>
+      <c r="L13" s="26">
+        <v>2</v>
+      </c>
+      <c r="M13" s="26">
+        <v>3</v>
+      </c>
+      <c r="N13" s="26">
+        <v>1</v>
+      </c>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43000012</v>
       </c>
@@ -6204,21 +7639,42 @@
       <c r="F14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>11001003</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
+      <c r="H14" s="4">
+        <v>12</v>
+      </c>
+      <c r="I14" s="26">
+        <v>5</v>
+      </c>
+      <c r="J14" s="26">
+        <v>1</v>
+      </c>
+      <c r="K14" s="26">
+        <v>2</v>
+      </c>
+      <c r="L14" s="26">
+        <v>2</v>
+      </c>
+      <c r="M14" s="26">
+        <v>3</v>
+      </c>
+      <c r="N14" s="26">
+        <v>1</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43000013</v>
       </c>
@@ -6235,21 +7691,42 @@
       <c r="F15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>11001003</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
+      <c r="H15" s="4">
+        <v>10</v>
+      </c>
+      <c r="I15" s="26">
+        <v>5</v>
+      </c>
+      <c r="J15" s="26">
+        <v>1</v>
+      </c>
+      <c r="K15" s="26">
+        <v>2</v>
+      </c>
+      <c r="L15" s="26">
+        <v>2</v>
+      </c>
+      <c r="M15" s="26">
+        <v>3</v>
+      </c>
+      <c r="N15" s="26">
+        <v>1</v>
+      </c>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43000014</v>
       </c>
@@ -6266,25 +7743,46 @@
       <c r="F16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>11001003</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4" t="s">
+      <c r="H16" s="4">
+        <v>12</v>
+      </c>
+      <c r="I16" s="26">
+        <v>5</v>
+      </c>
+      <c r="J16" s="26">
+        <v>1</v>
+      </c>
+      <c r="K16" s="26">
+        <v>2</v>
+      </c>
+      <c r="L16" s="26">
+        <v>2</v>
+      </c>
+      <c r="M16" s="26">
+        <v>3</v>
+      </c>
+      <c r="N16" s="26">
+        <v>1</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43000015</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -6297,25 +7795,46 @@
       <c r="F17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>11001003</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="4" t="s">
+      <c r="H17" s="4">
+        <v>12</v>
+      </c>
+      <c r="I17" s="26">
+        <v>5</v>
+      </c>
+      <c r="J17" s="26">
+        <v>1</v>
+      </c>
+      <c r="K17" s="26">
+        <v>2</v>
+      </c>
+      <c r="L17" s="26">
+        <v>2</v>
+      </c>
+      <c r="M17" s="26">
+        <v>3</v>
+      </c>
+      <c r="N17" s="26">
+        <v>1</v>
+      </c>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43000016</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -6328,25 +7847,46 @@
       <c r="F18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>11001003</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4" t="s">
+      <c r="H18" s="4">
+        <v>7</v>
+      </c>
+      <c r="I18" s="26">
+        <v>5</v>
+      </c>
+      <c r="J18" s="26">
+        <v>1</v>
+      </c>
+      <c r="K18" s="26">
+        <v>2</v>
+      </c>
+      <c r="L18" s="26">
+        <v>2</v>
+      </c>
+      <c r="M18" s="26">
+        <v>3</v>
+      </c>
+      <c r="N18" s="26">
+        <v>1</v>
+      </c>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43000017</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -6359,25 +7899,46 @@
       <c r="F19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>11001003</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4" t="s">
+      <c r="H19" s="4">
+        <v>5</v>
+      </c>
+      <c r="I19" s="26">
+        <v>5</v>
+      </c>
+      <c r="J19" s="26">
+        <v>1</v>
+      </c>
+      <c r="K19" s="26">
+        <v>2</v>
+      </c>
+      <c r="L19" s="26">
+        <v>2</v>
+      </c>
+      <c r="M19" s="26">
+        <v>3</v>
+      </c>
+      <c r="N19" s="26">
+        <v>1</v>
+      </c>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43000018</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -6390,21 +7951,42 @@
       <c r="F20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>11001003</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4" t="s">
+      <c r="H20" s="4">
+        <v>9</v>
+      </c>
+      <c r="I20" s="26">
+        <v>5</v>
+      </c>
+      <c r="J20" s="26">
+        <v>1</v>
+      </c>
+      <c r="K20" s="26">
+        <v>2</v>
+      </c>
+      <c r="L20" s="26">
+        <v>2</v>
+      </c>
+      <c r="M20" s="26">
+        <v>3</v>
+      </c>
+      <c r="N20" s="26">
+        <v>1</v>
+      </c>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43000019</v>
       </c>
@@ -6421,25 +8003,46 @@
       <c r="F21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>11001003</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4" t="s">
+      <c r="H21" s="4">
+        <v>15</v>
+      </c>
+      <c r="I21" s="26">
+        <v>5</v>
+      </c>
+      <c r="J21" s="26">
+        <v>1</v>
+      </c>
+      <c r="K21" s="26">
+        <v>2</v>
+      </c>
+      <c r="L21" s="26">
+        <v>2</v>
+      </c>
+      <c r="M21" s="26">
+        <v>3</v>
+      </c>
+      <c r="N21" s="26">
+        <v>1</v>
+      </c>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43000020</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -6452,21 +8055,42 @@
       <c r="F22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>11001003</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4" t="s">
+      <c r="H22" s="4">
+        <v>4</v>
+      </c>
+      <c r="I22" s="26">
+        <v>5</v>
+      </c>
+      <c r="J22" s="26">
+        <v>1</v>
+      </c>
+      <c r="K22" s="26">
+        <v>2</v>
+      </c>
+      <c r="L22" s="26">
+        <v>2</v>
+      </c>
+      <c r="M22" s="26">
+        <v>3</v>
+      </c>
+      <c r="N22" s="26">
+        <v>1</v>
+      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43000021</v>
       </c>
@@ -6483,21 +8107,42 @@
       <c r="F23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>11001003</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4" t="s">
+      <c r="H23" s="4">
+        <v>15</v>
+      </c>
+      <c r="I23" s="26">
+        <v>5</v>
+      </c>
+      <c r="J23" s="26">
+        <v>1</v>
+      </c>
+      <c r="K23" s="26">
+        <v>2</v>
+      </c>
+      <c r="L23" s="26">
+        <v>2</v>
+      </c>
+      <c r="M23" s="26">
+        <v>3</v>
+      </c>
+      <c r="N23" s="26">
+        <v>1</v>
+      </c>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43000022</v>
       </c>
@@ -6514,21 +8159,42 @@
       <c r="F24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>11001003</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4" t="s">
+      <c r="H24" s="4">
+        <v>14</v>
+      </c>
+      <c r="I24" s="26">
+        <v>5</v>
+      </c>
+      <c r="J24" s="26">
+        <v>1</v>
+      </c>
+      <c r="K24" s="26">
+        <v>2</v>
+      </c>
+      <c r="L24" s="26">
+        <v>2</v>
+      </c>
+      <c r="M24" s="26">
+        <v>3</v>
+      </c>
+      <c r="N24" s="26">
+        <v>1</v>
+      </c>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43000023</v>
       </c>
@@ -6545,21 +8211,42 @@
       <c r="F25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>11001003</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
+      <c r="H25" s="4">
+        <v>17</v>
+      </c>
+      <c r="I25" s="26">
+        <v>5</v>
+      </c>
+      <c r="J25" s="26">
+        <v>1</v>
+      </c>
+      <c r="K25" s="26">
+        <v>2</v>
+      </c>
+      <c r="L25" s="26">
+        <v>2</v>
+      </c>
+      <c r="M25" s="26">
+        <v>3</v>
+      </c>
+      <c r="N25" s="26">
+        <v>1</v>
+      </c>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43000024</v>
       </c>
@@ -6576,21 +8263,42 @@
       <c r="F26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>11001003</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4" t="s">
+      <c r="H26" s="4">
+        <v>34</v>
+      </c>
+      <c r="I26" s="26">
+        <v>5</v>
+      </c>
+      <c r="J26" s="26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="26">
+        <v>2</v>
+      </c>
+      <c r="L26" s="26">
+        <v>2</v>
+      </c>
+      <c r="M26" s="26">
+        <v>3</v>
+      </c>
+      <c r="N26" s="26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43000025</v>
       </c>
@@ -6607,21 +8315,42 @@
       <c r="F27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>11001003</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4" t="s">
+      <c r="H27" s="4">
+        <v>35</v>
+      </c>
+      <c r="I27" s="26">
+        <v>5</v>
+      </c>
+      <c r="J27" s="26">
+        <v>1</v>
+      </c>
+      <c r="K27" s="26">
+        <v>2</v>
+      </c>
+      <c r="L27" s="26">
+        <v>2</v>
+      </c>
+      <c r="M27" s="26">
+        <v>3</v>
+      </c>
+      <c r="N27" s="26">
+        <v>1</v>
+      </c>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43000026</v>
       </c>
@@ -6638,21 +8367,42 @@
       <c r="F28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>11001003</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4" t="s">
+      <c r="H28" s="4">
+        <v>35</v>
+      </c>
+      <c r="I28" s="26">
+        <v>5</v>
+      </c>
+      <c r="J28" s="26">
+        <v>1</v>
+      </c>
+      <c r="K28" s="26">
+        <v>2</v>
+      </c>
+      <c r="L28" s="26">
+        <v>2</v>
+      </c>
+      <c r="M28" s="26">
+        <v>3</v>
+      </c>
+      <c r="N28" s="26">
+        <v>1</v>
+      </c>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43000027</v>
       </c>
@@ -6669,21 +8419,42 @@
       <c r="F29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>11001003</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4" t="s">
+      <c r="H29" s="4">
+        <v>5</v>
+      </c>
+      <c r="I29" s="26">
+        <v>5</v>
+      </c>
+      <c r="J29" s="26">
+        <v>1</v>
+      </c>
+      <c r="K29" s="26">
+        <v>2</v>
+      </c>
+      <c r="L29" s="26">
+        <v>2</v>
+      </c>
+      <c r="M29" s="26">
+        <v>3</v>
+      </c>
+      <c r="N29" s="26">
+        <v>1</v>
+      </c>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43000028</v>
       </c>
@@ -6700,25 +8471,46 @@
       <c r="F30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>11001003</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4" t="s">
+      <c r="H30" s="4">
+        <v>16</v>
+      </c>
+      <c r="I30" s="26">
+        <v>5</v>
+      </c>
+      <c r="J30" s="26">
+        <v>1</v>
+      </c>
+      <c r="K30" s="26">
+        <v>2</v>
+      </c>
+      <c r="L30" s="26">
+        <v>2</v>
+      </c>
+      <c r="M30" s="26">
+        <v>3</v>
+      </c>
+      <c r="N30" s="26">
+        <v>1</v>
+      </c>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43000029</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -6731,21 +8523,42 @@
       <c r="F31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>11001003</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4" t="s">
+      <c r="H31" s="4">
+        <v>14</v>
+      </c>
+      <c r="I31" s="26">
+        <v>5</v>
+      </c>
+      <c r="J31" s="26">
+        <v>1</v>
+      </c>
+      <c r="K31" s="26">
+        <v>2</v>
+      </c>
+      <c r="L31" s="26">
+        <v>2</v>
+      </c>
+      <c r="M31" s="26">
+        <v>3</v>
+      </c>
+      <c r="N31" s="26">
+        <v>1</v>
+      </c>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43000030</v>
       </c>
@@ -6762,21 +8575,42 @@
       <c r="F32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>11001003</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4" t="s">
+      <c r="H32" s="4">
+        <v>16</v>
+      </c>
+      <c r="I32" s="26">
+        <v>5</v>
+      </c>
+      <c r="J32" s="26">
+        <v>1</v>
+      </c>
+      <c r="K32" s="26">
+        <v>2</v>
+      </c>
+      <c r="L32" s="26">
+        <v>2</v>
+      </c>
+      <c r="M32" s="26">
+        <v>3</v>
+      </c>
+      <c r="N32" s="26">
+        <v>1</v>
+      </c>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43000031</v>
       </c>
@@ -6793,25 +8627,46 @@
       <c r="F33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>11001003</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4" t="s">
+      <c r="H33" s="4">
+        <v>7</v>
+      </c>
+      <c r="I33" s="26">
+        <v>5</v>
+      </c>
+      <c r="J33" s="26">
+        <v>1</v>
+      </c>
+      <c r="K33" s="26">
+        <v>2</v>
+      </c>
+      <c r="L33" s="26">
+        <v>2</v>
+      </c>
+      <c r="M33" s="26">
+        <v>3</v>
+      </c>
+      <c r="N33" s="26">
+        <v>1</v>
+      </c>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43000032</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -6824,21 +8679,42 @@
       <c r="F34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>11001003</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4" t="s">
+      <c r="H34" s="4">
+        <v>18</v>
+      </c>
+      <c r="I34" s="26">
+        <v>5</v>
+      </c>
+      <c r="J34" s="26">
+        <v>1</v>
+      </c>
+      <c r="K34" s="26">
+        <v>2</v>
+      </c>
+      <c r="L34" s="26">
+        <v>2</v>
+      </c>
+      <c r="M34" s="26">
+        <v>3</v>
+      </c>
+      <c r="N34" s="26">
+        <v>1</v>
+      </c>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43000033</v>
       </c>
@@ -6855,25 +8731,46 @@
       <c r="F35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <v>11001003</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4" t="s">
+      <c r="H35" s="4">
+        <v>7</v>
+      </c>
+      <c r="I35" s="26">
+        <v>5</v>
+      </c>
+      <c r="J35" s="26">
+        <v>1</v>
+      </c>
+      <c r="K35" s="26">
+        <v>2</v>
+      </c>
+      <c r="L35" s="26">
+        <v>2</v>
+      </c>
+      <c r="M35" s="26">
+        <v>3</v>
+      </c>
+      <c r="N35" s="26">
+        <v>1</v>
+      </c>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43000035</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -6886,25 +8783,46 @@
       <c r="F36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <v>11001003</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4" t="s">
+      <c r="H36" s="4">
+        <v>6</v>
+      </c>
+      <c r="I36" s="26">
+        <v>5</v>
+      </c>
+      <c r="J36" s="26">
+        <v>1</v>
+      </c>
+      <c r="K36" s="26">
+        <v>2</v>
+      </c>
+      <c r="L36" s="26">
+        <v>2</v>
+      </c>
+      <c r="M36" s="26">
+        <v>3</v>
+      </c>
+      <c r="N36" s="26">
+        <v>1</v>
+      </c>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43000037</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>162</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -6917,25 +8835,46 @@
       <c r="F37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="7">
         <v>11001003</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4" t="s">
+      <c r="H37" s="4">
+        <v>8</v>
+      </c>
+      <c r="I37" s="26">
+        <v>5</v>
+      </c>
+      <c r="J37" s="26">
+        <v>1</v>
+      </c>
+      <c r="K37" s="26">
+        <v>2</v>
+      </c>
+      <c r="L37" s="26">
+        <v>2</v>
+      </c>
+      <c r="M37" s="26">
+        <v>3</v>
+      </c>
+      <c r="N37" s="26">
+        <v>1</v>
+      </c>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>43000038</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -6948,25 +8887,46 @@
       <c r="F38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="7">
         <v>11001003</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4" t="s">
+      <c r="H38" s="4">
+        <v>7</v>
+      </c>
+      <c r="I38" s="26">
+        <v>5</v>
+      </c>
+      <c r="J38" s="26">
+        <v>1</v>
+      </c>
+      <c r="K38" s="26">
+        <v>2</v>
+      </c>
+      <c r="L38" s="26">
+        <v>2</v>
+      </c>
+      <c r="M38" s="26">
+        <v>3</v>
+      </c>
+      <c r="N38" s="26">
+        <v>1</v>
+      </c>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="23">
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A39" s="22">
         <v>43001001</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -6979,25 +8939,46 @@
       <c r="F39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <v>11001003</v>
       </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4" t="s">
+      <c r="H39" s="4">
+        <v>10</v>
+      </c>
+      <c r="I39" s="26">
+        <v>5</v>
+      </c>
+      <c r="J39" s="26">
+        <v>1</v>
+      </c>
+      <c r="K39" s="26">
+        <v>2</v>
+      </c>
+      <c r="L39" s="26">
+        <v>2</v>
+      </c>
+      <c r="M39" s="26">
+        <v>3</v>
+      </c>
+      <c r="N39" s="26">
+        <v>1</v>
+      </c>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q39" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="23">
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A40" s="22">
         <v>43001002</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -7010,25 +8991,46 @@
       <c r="F40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="7">
         <v>11001003</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4" t="s">
+      <c r="H40" s="4">
+        <v>12</v>
+      </c>
+      <c r="I40" s="26">
+        <v>5</v>
+      </c>
+      <c r="J40" s="26">
+        <v>1</v>
+      </c>
+      <c r="K40" s="26">
+        <v>2</v>
+      </c>
+      <c r="L40" s="26">
+        <v>2</v>
+      </c>
+      <c r="M40" s="26">
+        <v>3</v>
+      </c>
+      <c r="N40" s="26">
+        <v>1</v>
+      </c>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="23">
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A41" s="22">
         <v>43001003</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>175</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -7041,25 +9043,46 @@
       <c r="F41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="7">
         <v>11001003</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4" t="s">
+      <c r="H41" s="4">
+        <v>12</v>
+      </c>
+      <c r="I41" s="26">
+        <v>5</v>
+      </c>
+      <c r="J41" s="26">
+        <v>1</v>
+      </c>
+      <c r="K41" s="26">
+        <v>2</v>
+      </c>
+      <c r="L41" s="26">
+        <v>2</v>
+      </c>
+      <c r="M41" s="26">
+        <v>3</v>
+      </c>
+      <c r="N41" s="26">
+        <v>1</v>
+      </c>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q41" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="23">
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A42" s="22">
         <v>43001004</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -7072,25 +9095,46 @@
       <c r="F42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <v>11001003</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4" t="s">
+      <c r="H42" s="4">
+        <v>8</v>
+      </c>
+      <c r="I42" s="26">
+        <v>5</v>
+      </c>
+      <c r="J42" s="26">
+        <v>1</v>
+      </c>
+      <c r="K42" s="26">
+        <v>2</v>
+      </c>
+      <c r="L42" s="26">
+        <v>2</v>
+      </c>
+      <c r="M42" s="26">
+        <v>3</v>
+      </c>
+      <c r="N42" s="26">
+        <v>1</v>
+      </c>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="23">
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A43" s="22">
         <v>43001005</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -7103,25 +9147,46 @@
       <c r="F43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="7">
         <v>11001003</v>
       </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4" t="s">
+      <c r="H43" s="4">
+        <v>9</v>
+      </c>
+      <c r="I43" s="26">
+        <v>5</v>
+      </c>
+      <c r="J43" s="26">
+        <v>1</v>
+      </c>
+      <c r="K43" s="26">
+        <v>2</v>
+      </c>
+      <c r="L43" s="26">
+        <v>2</v>
+      </c>
+      <c r="M43" s="26">
+        <v>3</v>
+      </c>
+      <c r="N43" s="26">
+        <v>1</v>
+      </c>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="23">
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A44" s="22">
         <v>43001006</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -7134,22 +9199,43 @@
       <c r="F44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="7">
         <v>11001003</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4" t="s">
+      <c r="H44" s="4">
+        <v>11</v>
+      </c>
+      <c r="I44" s="26">
+        <v>5</v>
+      </c>
+      <c r="J44" s="26">
+        <v>1</v>
+      </c>
+      <c r="K44" s="26">
+        <v>2</v>
+      </c>
+      <c r="L44" s="26">
+        <v>2</v>
+      </c>
+      <c r="M44" s="26">
+        <v>3</v>
+      </c>
+      <c r="N44" s="26">
+        <v>1</v>
+      </c>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q44" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="24">
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A45" s="23">
         <v>43002001</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -7158,29 +9244,50 @@
       <c r="C45" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="16">
         <v>0</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G45" s="18">
+      <c r="E45" s="16"/>
+      <c r="F45" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="17">
         <v>11001003</v>
       </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="4" t="s">
+      <c r="H45" s="16">
+        <v>7</v>
+      </c>
+      <c r="I45" s="26">
+        <v>5</v>
+      </c>
+      <c r="J45" s="26">
+        <v>1</v>
+      </c>
+      <c r="K45" s="26">
+        <v>2</v>
+      </c>
+      <c r="L45" s="26">
+        <v>2</v>
+      </c>
+      <c r="M45" s="26">
+        <v>3</v>
+      </c>
+      <c r="N45" s="26">
+        <v>1</v>
+      </c>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="24">
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A46" s="23">
         <v>43002002</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -7189,26 +9296,102 @@
       <c r="C46" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="16">
         <v>0</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46" s="18">
+      <c r="E46" s="16"/>
+      <c r="F46" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="17">
         <v>11001003</v>
       </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="4" t="s">
+      <c r="H46" s="16">
+        <v>7</v>
+      </c>
+      <c r="I46" s="26">
+        <v>5</v>
+      </c>
+      <c r="J46" s="26">
+        <v>1</v>
+      </c>
+      <c r="K46" s="26">
+        <v>2</v>
+      </c>
+      <c r="L46" s="26">
+        <v>2</v>
+      </c>
+      <c r="M46" s="26">
+        <v>3</v>
+      </c>
+      <c r="N46" s="26">
+        <v>1</v>
+      </c>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+    </row>
+    <row r="49" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+    </row>
+    <row r="50" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+    </row>
+    <row r="51" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/Samurai.xlsx
+++ b/ConfigData/Xlsx/Samurai.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -2170,274 +2170,27 @@
   </cellStyles>
   <dxfs count="70">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2448,6 +2201,114 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2475,23 +2336,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2649,62 +2493,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2728,157 +2516,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -3224,6 +2861,105 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3443,6 +3179,270 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3525,64 +3525,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:T51" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" tableBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:T51" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="A3:T51"/>
   <sortState ref="A4:Q50">
     <sortCondition ref="A3:A50"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" name="Id" dataDxfId="66"/>
-    <tableColumn id="2" name="Name" dataDxfId="65"/>
-    <tableColumn id="18" name="Ename" dataDxfId="64"/>
-    <tableColumn id="3" name="Type" dataDxfId="63"/>
-    <tableColumn id="21" name="Quality" dataDxfId="62"/>
-    <tableColumn id="6" name="World" dataDxfId="61"/>
-    <tableColumn id="10" name="Job" dataDxfId="42"/>
-    <tableColumn id="4" name="Level" dataDxfId="41"/>
-    <tableColumn id="5" name="Str" dataDxfId="39"/>
-    <tableColumn id="9" name="Def" dataDxfId="38"/>
-    <tableColumn id="11" name="Spd" dataDxfId="37"/>
-    <tableColumn id="12" name="Skl" dataDxfId="36"/>
-    <tableColumn id="13" name="Luk" dataDxfId="35"/>
-    <tableColumn id="14" name="Mov" dataDxfId="34"/>
-    <tableColumn id="16" name="Mag" dataDxfId="25"/>
-    <tableColumn id="15" name="Hp" dataDxfId="33"/>
-    <tableColumn id="17" name="Figue" dataDxfId="60"/>
-    <tableColumn id="22" name="~History" dataDxfId="59"/>
-    <tableColumn id="23" name="~Like" dataDxfId="58"/>
-    <tableColumn id="24" name="~Hate" dataDxfId="57"/>
+    <tableColumn id="1" name="Id" dataDxfId="42"/>
+    <tableColumn id="2" name="Name" dataDxfId="41"/>
+    <tableColumn id="18" name="Ename" dataDxfId="40"/>
+    <tableColumn id="3" name="Type" dataDxfId="39"/>
+    <tableColumn id="21" name="Quality" dataDxfId="38"/>
+    <tableColumn id="6" name="World" dataDxfId="37"/>
+    <tableColumn id="10" name="Job" dataDxfId="36"/>
+    <tableColumn id="4" name="Level" dataDxfId="35"/>
+    <tableColumn id="5" name="Str" dataDxfId="34"/>
+    <tableColumn id="9" name="Def" dataDxfId="33"/>
+    <tableColumn id="11" name="Spd" dataDxfId="32"/>
+    <tableColumn id="12" name="Skl" dataDxfId="31"/>
+    <tableColumn id="13" name="Luk" dataDxfId="30"/>
+    <tableColumn id="14" name="Mov" dataDxfId="1"/>
+    <tableColumn id="16" name="Mag" dataDxfId="29"/>
+    <tableColumn id="15" name="Hp" dataDxfId="28"/>
+    <tableColumn id="17" name="Figue" dataDxfId="27"/>
+    <tableColumn id="22" name="~History" dataDxfId="26"/>
+    <tableColumn id="23" name="~Like" dataDxfId="25"/>
+    <tableColumn id="24" name="~Hate" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:T46" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:T46" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="A3:T46"/>
   <sortState ref="A4:Q46">
     <sortCondition ref="A3:A46"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" name="Id" dataDxfId="53"/>
-    <tableColumn id="2" name="Name" dataDxfId="52"/>
-    <tableColumn id="18" name="Ename" dataDxfId="51"/>
-    <tableColumn id="3" name="Type" dataDxfId="50"/>
-    <tableColumn id="7" name="Quality" dataDxfId="49"/>
-    <tableColumn id="6" name="World" dataDxfId="48"/>
-    <tableColumn id="10" name="Job" dataDxfId="47"/>
-    <tableColumn id="4" name="Level" dataDxfId="40"/>
-    <tableColumn id="5" name="Str" dataDxfId="32"/>
-    <tableColumn id="9" name="Def" dataDxfId="31"/>
-    <tableColumn id="11" name="Spd" dataDxfId="30"/>
-    <tableColumn id="8" name="Skl" dataDxfId="29"/>
-    <tableColumn id="21" name="Luk" dataDxfId="28"/>
-    <tableColumn id="25" name="Mov" dataDxfId="27"/>
-    <tableColumn id="12" name="Mag" dataDxfId="0"/>
-    <tableColumn id="26" name="Hp" dataDxfId="26"/>
-    <tableColumn id="17" name="Figue" dataDxfId="46"/>
-    <tableColumn id="22" name="~History" dataDxfId="45"/>
-    <tableColumn id="23" name="~Like" dataDxfId="44"/>
-    <tableColumn id="24" name="~Hate" dataDxfId="43"/>
+    <tableColumn id="1" name="Id" dataDxfId="20"/>
+    <tableColumn id="2" name="Name" dataDxfId="19"/>
+    <tableColumn id="18" name="Ename" dataDxfId="18"/>
+    <tableColumn id="3" name="Type" dataDxfId="17"/>
+    <tableColumn id="7" name="Quality" dataDxfId="16"/>
+    <tableColumn id="6" name="World" dataDxfId="15"/>
+    <tableColumn id="10" name="Job" dataDxfId="14"/>
+    <tableColumn id="4" name="Level" dataDxfId="13"/>
+    <tableColumn id="5" name="Str" dataDxfId="12"/>
+    <tableColumn id="9" name="Def" dataDxfId="11"/>
+    <tableColumn id="11" name="Spd" dataDxfId="10"/>
+    <tableColumn id="8" name="Skl" dataDxfId="9"/>
+    <tableColumn id="21" name="Luk" dataDxfId="8"/>
+    <tableColumn id="25" name="Mov" dataDxfId="0"/>
+    <tableColumn id="12" name="Mag" dataDxfId="7"/>
+    <tableColumn id="26" name="Hp" dataDxfId="6"/>
+    <tableColumn id="17" name="Figue" dataDxfId="5"/>
+    <tableColumn id="22" name="~History" dataDxfId="4"/>
+    <tableColumn id="23" name="~Like" dataDxfId="3"/>
+    <tableColumn id="24" name="~Hate" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3911,11 +3911,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4:N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4152,7 +4152,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O4" s="26"/>
       <c r="P4" s="26">
@@ -4206,7 +4206,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O5" s="26"/>
       <c r="P5" s="26">
@@ -4262,7 +4262,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O6" s="26"/>
       <c r="P6" s="26">
@@ -4320,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O7" s="26"/>
       <c r="P7" s="26">
@@ -4378,7 +4378,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O8" s="26"/>
       <c r="P8" s="26">
@@ -4436,7 +4436,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O9" s="26"/>
       <c r="P9" s="26">
@@ -4492,7 +4492,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O10" s="26"/>
       <c r="P10" s="26">
@@ -4548,7 +4548,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O11" s="26"/>
       <c r="P11" s="26">
@@ -4604,7 +4604,7 @@
         <v>3</v>
       </c>
       <c r="N12" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O12" s="26"/>
       <c r="P12" s="26">
@@ -4660,7 +4660,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O13" s="26"/>
       <c r="P13" s="26">
@@ -4716,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O14" s="26"/>
       <c r="P14" s="26">
@@ -4772,7 +4772,7 @@
         <v>3</v>
       </c>
       <c r="N15" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O15" s="26"/>
       <c r="P15" s="26">
@@ -4828,7 +4828,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26">
@@ -4884,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O17" s="26"/>
       <c r="P17" s="26">
@@ -4938,7 +4938,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O18" s="26"/>
       <c r="P18" s="26">
@@ -4994,7 +4994,7 @@
         <v>3</v>
       </c>
       <c r="N19" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26">
@@ -5050,7 +5050,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O20" s="26"/>
       <c r="P20" s="26">
@@ -5106,7 +5106,7 @@
         <v>3</v>
       </c>
       <c r="N21" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O21" s="26"/>
       <c r="P21" s="26">
@@ -5162,7 +5162,7 @@
         <v>3</v>
       </c>
       <c r="N22" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O22" s="26"/>
       <c r="P22" s="26">
@@ -5216,7 +5216,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="26">
@@ -5274,7 +5274,7 @@
         <v>3</v>
       </c>
       <c r="N24" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O24" s="26"/>
       <c r="P24" s="26">
@@ -5330,7 +5330,7 @@
         <v>3</v>
       </c>
       <c r="N25" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O25" s="26"/>
       <c r="P25" s="26">
@@ -5386,7 +5386,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O26" s="26"/>
       <c r="P26" s="26">
@@ -5442,7 +5442,7 @@
         <v>3</v>
       </c>
       <c r="N27" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O27" s="26"/>
       <c r="P27" s="26">
@@ -5498,7 +5498,7 @@
         <v>3</v>
       </c>
       <c r="N28" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O28" s="26"/>
       <c r="P28" s="26">
@@ -5554,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="N29" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O29" s="26"/>
       <c r="P29" s="26">
@@ -5612,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="N30" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O30" s="26"/>
       <c r="P30" s="26">
@@ -5668,7 +5668,7 @@
         <v>3</v>
       </c>
       <c r="N31" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O31" s="26"/>
       <c r="P31" s="26">
@@ -5724,7 +5724,7 @@
         <v>3</v>
       </c>
       <c r="N32" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O32" s="26"/>
       <c r="P32" s="26">
@@ -5780,7 +5780,7 @@
         <v>3</v>
       </c>
       <c r="N33" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O33" s="26"/>
       <c r="P33" s="26">
@@ -5838,7 +5838,7 @@
         <v>3</v>
       </c>
       <c r="N34" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O34" s="26"/>
       <c r="P34" s="26">
@@ -5896,7 +5896,7 @@
         <v>3</v>
       </c>
       <c r="N35" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O35" s="26"/>
       <c r="P35" s="26">
@@ -5954,7 +5954,7 @@
         <v>3</v>
       </c>
       <c r="N36" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O36" s="26"/>
       <c r="P36" s="26">
@@ -6012,7 +6012,7 @@
         <v>3</v>
       </c>
       <c r="N37" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O37" s="26"/>
       <c r="P37" s="26">
@@ -6068,7 +6068,7 @@
         <v>3</v>
       </c>
       <c r="N38" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O38" s="26"/>
       <c r="P38" s="26">
@@ -6124,7 +6124,7 @@
         <v>3</v>
       </c>
       <c r="N39" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O39" s="26"/>
       <c r="P39" s="26">
@@ -6180,7 +6180,7 @@
         <v>3</v>
       </c>
       <c r="N40" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O40" s="26"/>
       <c r="P40" s="26">
@@ -6236,7 +6236,7 @@
         <v>3</v>
       </c>
       <c r="N41" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O41" s="26"/>
       <c r="P41" s="26">
@@ -6292,7 +6292,7 @@
         <v>3</v>
       </c>
       <c r="N42" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O42" s="26"/>
       <c r="P42" s="26">
@@ -6348,7 +6348,7 @@
         <v>3</v>
       </c>
       <c r="N43" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O43" s="26"/>
       <c r="P43" s="26">
@@ -6404,7 +6404,7 @@
         <v>3</v>
       </c>
       <c r="N44" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O44" s="26"/>
       <c r="P44" s="26">
@@ -6460,7 +6460,7 @@
         <v>3</v>
       </c>
       <c r="N45" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O45" s="26"/>
       <c r="P45" s="26">
@@ -6516,7 +6516,7 @@
         <v>3</v>
       </c>
       <c r="N46" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O46" s="26"/>
       <c r="P46" s="26">
@@ -6574,7 +6574,7 @@
         <v>3</v>
       </c>
       <c r="N47" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O47" s="26"/>
       <c r="P47" s="26">
@@ -6632,7 +6632,7 @@
         <v>3</v>
       </c>
       <c r="N48" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O48" s="26"/>
       <c r="P48" s="26">
@@ -6684,7 +6684,7 @@
         <v>3</v>
       </c>
       <c r="N49" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O49" s="26"/>
       <c r="P49" s="26">
@@ -6736,7 +6736,7 @@
         <v>3</v>
       </c>
       <c r="N50" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O50" s="26"/>
       <c r="P50" s="26">
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="N51" s="26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O51" s="26"/>
       <c r="P51" s="26">
@@ -6806,86 +6806,86 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="E23:E25 E27:E43 E4:E19 E45:E51">
-    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="42" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="43" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="44" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="37" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="38" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="21" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="22" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6901,11 +6901,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:O3"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4:N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7141,7 +7141,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" s="26"/>
       <c r="P4" s="26">
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5" s="26"/>
       <c r="P5" s="26">
@@ -7245,7 +7245,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6" s="26"/>
       <c r="P6" s="26">
@@ -7297,7 +7297,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" s="26"/>
       <c r="P7" s="26">
@@ -7349,7 +7349,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O8" s="26"/>
       <c r="P8" s="26">
@@ -7401,7 +7401,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" s="26"/>
       <c r="P9" s="26">
@@ -7453,7 +7453,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10" s="26"/>
       <c r="P10" s="26">
@@ -7505,7 +7505,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11" s="26"/>
       <c r="P11" s="26">
@@ -7557,7 +7557,7 @@
         <v>3</v>
       </c>
       <c r="N12" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O12" s="26"/>
       <c r="P12" s="26">
@@ -7609,7 +7609,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13" s="26"/>
       <c r="P13" s="26">
@@ -7661,7 +7661,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" s="26"/>
       <c r="P14" s="26">
@@ -7713,7 +7713,7 @@
         <v>3</v>
       </c>
       <c r="N15" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15" s="26"/>
       <c r="P15" s="26">
@@ -7765,7 +7765,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26">
@@ -7817,7 +7817,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17" s="26"/>
       <c r="P17" s="26">
@@ -7869,7 +7869,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O18" s="26"/>
       <c r="P18" s="26">
@@ -7921,7 +7921,7 @@
         <v>3</v>
       </c>
       <c r="N19" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26">
@@ -7973,7 +7973,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" s="26"/>
       <c r="P20" s="26">
@@ -8025,7 +8025,7 @@
         <v>3</v>
       </c>
       <c r="N21" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21" s="26"/>
       <c r="P21" s="26">
@@ -8077,7 +8077,7 @@
         <v>3</v>
       </c>
       <c r="N22" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O22" s="26"/>
       <c r="P22" s="26">
@@ -8129,7 +8129,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="26">
@@ -8181,7 +8181,7 @@
         <v>3</v>
       </c>
       <c r="N24" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O24" s="26"/>
       <c r="P24" s="26">
@@ -8233,7 +8233,7 @@
         <v>3</v>
       </c>
       <c r="N25" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O25" s="26"/>
       <c r="P25" s="26">
@@ -8285,7 +8285,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O26" s="26"/>
       <c r="P26" s="26">
@@ -8337,7 +8337,7 @@
         <v>3</v>
       </c>
       <c r="N27" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O27" s="26"/>
       <c r="P27" s="26">
@@ -8389,7 +8389,7 @@
         <v>3</v>
       </c>
       <c r="N28" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O28" s="26"/>
       <c r="P28" s="26">
@@ -8441,7 +8441,7 @@
         <v>3</v>
       </c>
       <c r="N29" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O29" s="26"/>
       <c r="P29" s="26">
@@ -8493,7 +8493,7 @@
         <v>3</v>
       </c>
       <c r="N30" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O30" s="26"/>
       <c r="P30" s="26">
@@ -8545,7 +8545,7 @@
         <v>3</v>
       </c>
       <c r="N31" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31" s="26"/>
       <c r="P31" s="26">
@@ -8597,7 +8597,7 @@
         <v>3</v>
       </c>
       <c r="N32" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32" s="26"/>
       <c r="P32" s="26">
@@ -8649,7 +8649,7 @@
         <v>3</v>
       </c>
       <c r="N33" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O33" s="26"/>
       <c r="P33" s="26">
@@ -8701,7 +8701,7 @@
         <v>3</v>
       </c>
       <c r="N34" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O34" s="26"/>
       <c r="P34" s="26">
@@ -8753,7 +8753,7 @@
         <v>3</v>
       </c>
       <c r="N35" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O35" s="26"/>
       <c r="P35" s="26">
@@ -8805,7 +8805,7 @@
         <v>3</v>
       </c>
       <c r="N36" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O36" s="26"/>
       <c r="P36" s="26">
@@ -8857,7 +8857,7 @@
         <v>3</v>
       </c>
       <c r="N37" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O37" s="26"/>
       <c r="P37" s="26">
@@ -8909,7 +8909,7 @@
         <v>3</v>
       </c>
       <c r="N38" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O38" s="26"/>
       <c r="P38" s="26">
@@ -8961,7 +8961,7 @@
         <v>3</v>
       </c>
       <c r="N39" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O39" s="26"/>
       <c r="P39" s="26">
@@ -9013,7 +9013,7 @@
         <v>3</v>
       </c>
       <c r="N40" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O40" s="26"/>
       <c r="P40" s="26">
@@ -9065,7 +9065,7 @@
         <v>3</v>
       </c>
       <c r="N41" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O41" s="26"/>
       <c r="P41" s="26">
@@ -9117,7 +9117,7 @@
         <v>3</v>
       </c>
       <c r="N42" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O42" s="26"/>
       <c r="P42" s="26">
@@ -9169,7 +9169,7 @@
         <v>3</v>
       </c>
       <c r="N43" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O43" s="26"/>
       <c r="P43" s="26">
@@ -9221,7 +9221,7 @@
         <v>3</v>
       </c>
       <c r="N44" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O44" s="26"/>
       <c r="P44" s="26">
@@ -9273,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="N45" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45" s="26"/>
       <c r="P45" s="26">
@@ -9325,7 +9325,7 @@
         <v>3</v>
       </c>
       <c r="N46" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O46" s="26"/>
       <c r="P46" s="26">
